--- a/Assets/StreamingAssets/2_Canteen_Training.xlsx
+++ b/Assets/StreamingAssets/2_Canteen_Training.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED479C4D-E265-7B44-9B3A-32E0338EB0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8364AEE7-2633-524B-BA9E-70CB65575B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28100" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="89">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,10 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Master, this young lady’s skills seem quite impressive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Yao-Astonished</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,14 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Yaochong, you’re being too hasty.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Look at the way she swings the weapon—when it cuts through the air like a feather, it means she’s not applying power correctly.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The force isn’t coming from the waist, but is simply brute strength from the arms.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,10 +177,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I see. Master, you’re amazing—you can spot these details just from a few moves.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Yao-Regular</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,10 +193,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>May I ask the young lady’s name?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Chen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -225,22 +205,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I’m Li Chen, the best martial artist in this entire manor.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Chen-Smile3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>My apologies, Miss Li—you must be the top disciple of the manor.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>top disciple? That’s only because there are just two guards left in Qingliu Manor now.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Chen-Smile2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,10 +217,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(No wonder we’ve walked around so long and seen so few people. The place has been eerily quiet.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Who would have thought such a grand manor would be so sparsely populated?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -261,26 +225,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Enough chatting—who are you anyway?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Chen-Regular</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I’m Di Renjie, and this is my page, Yao Chong.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>We came from Luoyang and passed through here on our way to Pengze County.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Luoyang, huh? Since it’s the capital, there must be many martial arts masters there.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Chen-Thinking</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -317,10 +269,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hello</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ran-Regular</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -341,14 +289,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I practice medicine in the town at the foot of the mountain. I came up a few days ago for a consultation.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Are you familiar with the manor’s master?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -381,43 +321,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ladder2</t>
-  </si>
-  <si>
-    <t>Ladder3</t>
-  </si>
-  <si>
-    <t>Ladder4</t>
-  </si>
-  <si>
-    <t>Ladder5</t>
-  </si>
-  <si>
-    <t>Ladder6</t>
-  </si>
-  <si>
-    <t>Ladder7</t>
-  </si>
-  <si>
-    <t>Ladder8</t>
-  </si>
-  <si>
-    <t>Ladder9</t>
-  </si>
-  <si>
-    <t>Ladder10</t>
-  </si>
-  <si>
-    <t>Ladder11</t>
-  </si>
-  <si>
-    <t>Ladder12</t>
-  </si>
-  <si>
-    <t>Ladder13</t>
-  </si>
-  <si>
-    <t>Ladder14</t>
+    <t>Luoyang, huh?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Since it’s the capital, there must be many martial arts masters there.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I came up a few days ago for a consultation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ladder1</t>
+  </si>
+  <si>
+    <t>Sir, this young lady’s skills seem quite impressive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yao, you’re being too hasty.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Look at the way she swings the weapon——when it cuts through the air like a feather, it means she’s not applying power correctly.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I see. You’re amazing——you can spot these details just from a few moves.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>May I ask your name please?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I’m Chen, the best martial artist in this entire manor.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My apologies, you must be the top disciple of the manor.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Top disciple? That’s only because there are just two guards left in Qingliu Manor now.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(No wonder we’ve walked around so long and seen so few people.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enough chatting——who are you anyway?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I’m Judge Dee, and this is my student, Yao.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I practice medicine in JiuJiang county at the foot of the mountain.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you familiar with the Lord?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -833,10 +805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F42"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -903,7 +875,7 @@
     </row>
     <row r="2" spans="1:16" ht="51">
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -951,10 +923,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
         <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -972,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="17">
@@ -980,7 +952,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -1003,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1026,10 +998,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -1049,10 +1021,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -1072,10 +1044,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -1088,15 +1060,13 @@
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:16" ht="34">
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -1111,12 +1081,12 @@
         <v>500</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="34">
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -1133,7 +1103,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1150,13 +1120,13 @@
     </row>
     <row r="14" spans="1:16" ht="17">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -1170,13 +1140,13 @@
     </row>
     <row r="15" spans="1:16" ht="17">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -1193,7 +1163,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -1210,13 +1180,13 @@
     </row>
     <row r="17" spans="1:12" ht="34">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
@@ -1232,7 +1202,7 @@
     </row>
     <row r="18" spans="1:12" ht="34">
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
@@ -1241,10 +1211,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="51">
+    <row r="19" spans="1:12" ht="34">
       <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" t="s">
@@ -1265,10 +1235,10 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
@@ -1288,13 +1258,13 @@
     </row>
     <row r="21" spans="1:12" ht="17">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
@@ -1312,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="17">
@@ -1320,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
@@ -1343,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -1361,15 +1331,15 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" ht="34">
+    <row r="24" spans="1:12" ht="17">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
@@ -1384,15 +1354,15 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" ht="17">
+    <row r="25" spans="1:12" ht="34">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
@@ -1407,9 +1377,15 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" ht="34">
+    <row r="26" spans="1:12" ht="17">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
       <c r="B26" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
@@ -1417,9 +1393,7 @@
       <c r="E26" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="2"/>
@@ -1428,7 +1402,7 @@
     </row>
     <row r="27" spans="1:12" ht="34">
       <c r="B27" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
@@ -1436,13 +1410,18 @@
       <c r="E27" t="s">
         <v>26</v>
       </c>
+      <c r="G27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" ht="34">
       <c r="B28" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
@@ -1450,146 +1429,140 @@
       <c r="E28" t="s">
         <v>26</v>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" ht="34">
       <c r="B29" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>67</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" ht="34">
       <c r="B30" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D30" t="s">
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="34">
       <c r="B31" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="17">
-      <c r="A32" t="s">
-        <v>83</v>
-      </c>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="34">
       <c r="B32" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>88</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K32" s="2">
-        <v>500</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="17">
       <c r="A33" t="s">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="D33" t="s">
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>89</v>
-      </c>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33" s="2">
+        <v>500</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="34" spans="1:12" ht="17">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
         <v>74</v>
-      </c>
-      <c r="C34" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" t="s">
-        <v>90</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" ht="34">
+    <row r="35" spans="1:12" ht="17">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D35" t="s">
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:12" ht="17">
+    <row r="36" spans="1:12" ht="34">
       <c r="A36" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="D36" t="s">
         <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -1597,19 +1570,19 @@
     </row>
     <row r="37" spans="1:12" ht="17">
       <c r="A37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="C37" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -1620,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
@@ -1629,7 +1602,7 @@
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -1637,63 +1610,100 @@
     </row>
     <row r="39" spans="1:12" ht="17">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D39" t="s">
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" ht="34">
+    <row r="40" spans="1:12" ht="17">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
       <c r="B40" s="1" t="s">
-        <v>81</v>
+        <v>64</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
       </c>
       <c r="D40" t="s">
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>96</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:12" ht="34">
+    <row r="41" spans="1:12" ht="17">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
       <c r="B41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s">
+        <v>74</v>
+      </c>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" ht="34">
+      <c r="B42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" t="s">
+        <v>74</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="1:12" ht="34">
+      <c r="B43" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D41" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="17">
-      <c r="A42" t="s">
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="17">
+      <c r="A44" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" t="s">
-        <v>85</v>
-      </c>
-      <c r="E42" t="s">
-        <v>98</v>
+      <c r="B44" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/2_Canteen_Training.xlsx
+++ b/Assets/StreamingAssets/2_Canteen_Training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8364AEE7-2633-524B-BA9E-70CB65575B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704EB733-CE79-534B-88A6-90CF36F8F6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28100" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -317,10 +317,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2_Canteen_Training_Garen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Luoyang, huh?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -389,6 +385,10 @@
   </si>
   <si>
     <t>Are you familiar with the Lord?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_Canteen_Training_Garden</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -807,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -923,7 +923,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -952,7 +952,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -975,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1044,7 +1044,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
@@ -1103,7 +1103,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1143,7 +1143,7 @@
         <v>39</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
         <v>42</v>
@@ -1163,7 +1163,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -1183,7 +1183,7 @@
         <v>39</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
         <v>43</v>
@@ -1214,7 +1214,7 @@
     <row r="19" spans="1:12" ht="34">
       <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" t="s">
@@ -1261,7 +1261,7 @@
         <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
         <v>43</v>
@@ -1290,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
@@ -1336,7 +1336,7 @@
         <v>39</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
         <v>49</v>
@@ -1359,7 +1359,7 @@
         <v>39</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
         <v>49</v>
@@ -1479,7 +1479,7 @@
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="17">
@@ -1487,7 +1487,7 @@
         <v>68</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
         <v>58</v>
@@ -1496,7 +1496,7 @@
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>22</v>
@@ -1522,7 +1522,7 @@
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -1542,7 +1542,7 @@
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -1553,7 +1553,7 @@
         <v>60</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
         <v>62</v>
@@ -1562,7 +1562,7 @@
         <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -1573,7 +1573,7 @@
         <v>60</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s">
         <v>58</v>
@@ -1582,7 +1582,7 @@
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -1593,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
@@ -1602,7 +1602,7 @@
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -1622,7 +1622,7 @@
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
@@ -1642,7 +1642,7 @@
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -1662,7 +1662,7 @@
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -1676,7 +1676,7 @@
         <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>17</v>
@@ -1692,7 +1692,7 @@
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="17">
@@ -1703,7 +1703,7 @@
         <v>69</v>
       </c>
       <c r="C44" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/2_Canteen_Training.xlsx
+++ b/Assets/StreamingAssets/2_Canteen_Training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704EB733-CE79-534B-88A6-90CF36F8F6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF17598-365B-C243-B5EF-79C6302D0CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28100" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -321,10 +321,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Since it’s the capital, there must be many martial arts masters there.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>I came up a few days ago for a consultation.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -390,6 +386,9 @@
   <si>
     <t>2_Canteen_Training_Garden</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Since it’s the capital, there must be many martial arts Lords there.</t>
   </si>
 </sst>
 </file>
@@ -923,7 +922,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -952,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -975,7 +974,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1044,7 +1043,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
@@ -1103,7 +1102,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1143,7 +1142,7 @@
         <v>39</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
         <v>42</v>
@@ -1163,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -1183,7 +1182,7 @@
         <v>39</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
         <v>43</v>
@@ -1214,7 +1213,7 @@
     <row r="19" spans="1:12" ht="34">
       <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" t="s">
@@ -1261,7 +1260,7 @@
         <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
         <v>43</v>
@@ -1290,7 +1289,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
@@ -1359,7 +1358,7 @@
         <v>39</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
         <v>49</v>
@@ -1479,7 +1478,7 @@
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="17">
@@ -1487,7 +1486,7 @@
         <v>68</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
         <v>58</v>
@@ -1496,7 +1495,7 @@
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>22</v>
@@ -1522,7 +1521,7 @@
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -1542,7 +1541,7 @@
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -1553,7 +1552,7 @@
         <v>60</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s">
         <v>62</v>
@@ -1562,7 +1561,7 @@
         <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -1573,7 +1572,7 @@
         <v>60</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
         <v>58</v>
@@ -1582,7 +1581,7 @@
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -1593,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
@@ -1602,7 +1601,7 @@
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -1622,7 +1621,7 @@
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
@@ -1642,7 +1641,7 @@
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -1662,7 +1661,7 @@
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -1676,7 +1675,7 @@
         <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>17</v>
@@ -1692,7 +1691,7 @@
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="17">
@@ -1703,7 +1702,7 @@
         <v>69</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
